--- a/biology/Écologie/Mosaïque_de_forêt-savane_guinéenne/Mosaïque_de_forêt-savane_guinéenne.xlsx
+++ b/biology/Écologie/Mosaïque_de_forêt-savane_guinéenne/Mosaïque_de_forêt-savane_guinéenne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mosa%C3%AFque_de_for%C3%AAt-savane_guin%C3%A9enne</t>
+          <t>Mosaïque_de_forêt-savane_guinéenne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Mosaïque de forêt-savane guinéenne (littéralement depuis l'anglais Guinean forest-savanna mosaic) est une des écorégions définies par le WWF ; c'est un des biomes de savanes et forêts claires tropicales et subtropicales de l'ouest africain.
 Cette écorégion occupe une superficie de 673 600 km2, couvrant le sud et l'ouest du Sénégal, l'ouest de la Gambie, le nord de la Sierra Leone, une grande partie du sud de la Guinée, une grande partie de la Guinée-Bissau, le centre de la Côte d'Ivoire et du Ghana, l'extrême est du Nigeria et la zone sud du Togo et du Bénin (que l'on appelle Dahomey Gap ou « couloir sec dahoméen »).
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mosa%C3%AFque_de_for%C3%AAt-savane_guin%C3%A9enne</t>
+          <t>Mosaïque_de_forêt-savane_guinéenne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>La faune et la flore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce climat tropical sec favorise les graminées et inhibe la croissance de la plupart des espèces d'arbre. Le feu, notamment d'origine anthropique, y a également une part importante. Certaines espèces comme la Lophira lanceolata sont résistantes au feu.
 Cette écorégion ne dispose pas d'espèces endémiques, mais de nombreuses espèces de grands mammifères tels que les lions et les éléphants d'Afrique y vivent. Les parcs nationaux présents dans cette zone attirent cependant peu de visiteurs, en comparaison avec ceux d'Afrique de l'Est ; les aires préservées n'y occupent en 2008 que 2 % des terres. D'une manière générale, les aires protégées et leurs infrastructures sont sous-financées.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mosa%C3%AFque_de_for%C3%AAt-savane_guin%C3%A9enne</t>
+          <t>Mosaïque_de_forêt-savane_guinéenne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Aires protégées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En 2017, les aires protégées représentent 107 116 km², soit 16% de l'écorégion. Elles comprennent :
 Le parc national du Haut-Niger en Guinée :
